--- a/initial_population_sizes.xlsx
+++ b/initial_population_sizes.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arathi/Documents/2017/RMIT/Research - CARP/CARP/LRC_models/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="12015"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,15 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -98,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -146,11 +159,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -159,14 +172,14 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -176,7 +189,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
@@ -317,12 +330,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -352,12 +365,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -567,12 +580,12 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -667,7 +680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1994</v>
       </c>
@@ -715,7 +728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1994</v>
       </c>
@@ -763,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1994</v>
       </c>
@@ -811,7 +824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1994</v>
       </c>
@@ -859,7 +872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1994</v>
       </c>
@@ -907,7 +920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1994</v>
       </c>
@@ -955,7 +968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1994</v>
       </c>
@@ -1016,9 +1029,9 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1038,7 +1051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1060,7 +1073,7 @@
         <v>22.54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1081,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1102,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -1123,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -1157,9 +1170,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>216426.2</v>
       </c>
@@ -1176,7 +1189,7 @@
         <v>33898.31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>423874.26</v>
       </c>
@@ -1193,7 +1206,7 @@
         <v>45140.22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>119646.71</v>
       </c>
@@ -1210,7 +1223,7 @@
         <v>13544.39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>282604.21000000002</v>
       </c>
@@ -1227,7 +1240,7 @@
         <v>43979.44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>357045.6</v>
       </c>
@@ -1244,7 +1257,7 @@
         <v>54491.91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>300615</v>
       </c>
@@ -1261,7 +1274,7 @@
         <v>47701.740000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>740208.73</v>
       </c>
@@ -1278,7 +1291,7 @@
         <v>113366.16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>83144.13</v>
       </c>
